--- a/LasVegasResult/LDA/visuals/topic visualization.xlsx
+++ b/LasVegasResult/LDA/visuals/topic visualization.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26606458-5B11-41B1-9001-6DA5DEFA3638}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035B245-8349-4307-8A45-5EDABB8BD638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="465" windowWidth="21600" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>#1</t>
   </si>
@@ -117,96 +116,6 @@
   </si>
   <si>
     <t>#0</t>
-  </si>
-  <si>
-    <t>Hustle &amp; Bustle</t>
-  </si>
-  <si>
-    <t>Cool &amp; Amazing Things</t>
-  </si>
-  <si>
-    <t>Street Hucksters</t>
-  </si>
-  <si>
-    <t>Mood Change</t>
-  </si>
-  <si>
-    <t>Architectural Visuals  &amp; Fakeness</t>
-  </si>
-  <si>
-    <t>Annoying People &amp; Distractions</t>
-  </si>
-  <si>
-    <t>Deceptive &amp; Complex Scenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirty &amp; Undesired </t>
-  </si>
-  <si>
-    <t>Family Experience</t>
-  </si>
-  <si>
-    <t>People Watching</t>
-  </si>
-  <si>
-    <t>Street Handing &amp; Harassment</t>
-  </si>
-  <si>
-    <t>Landmarks</t>
-  </si>
-  <si>
-    <t>Safety Concern</t>
-  </si>
-  <si>
-    <t>Nearby Site-Seeing Activities</t>
-  </si>
-  <si>
-    <t>Adult Activities</t>
-  </si>
-  <si>
-    <t>Transportation Aids</t>
-  </si>
-  <si>
-    <t>Walkability Issues</t>
-  </si>
-  <si>
-    <t>Bucket List</t>
-  </si>
-  <si>
-    <t>Night Scene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shoe and Drinking Water </t>
-  </si>
-  <si>
-    <t>Air conditioning &amp; Escalator</t>
-  </si>
-  <si>
-    <t>Shopping Environment</t>
-  </si>
-  <si>
-    <t>Shopping Choices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Hustle &amp; Distraction  </t>
-  </si>
-  <si>
-    <t>Pan Handler</t>
-  </si>
-  <si>
-    <t>Porn Handing</t>
-  </si>
-  <si>
-    <t>Sensory Overload</t>
-  </si>
-  <si>
-    <t>Walking and Exploring between Hotels</t>
-  </si>
-  <si>
-    <t>Shows and Exhibitions</t>
-  </si>
-  <si>
-    <t>Enjoyment &amp; Vibrant</t>
   </si>
   <si>
     <t>#0 Hustle &amp; Bustle</t>
@@ -303,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,38 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
+      <sz val="9"/>
+      <name val="Monospaced"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="7" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF993300"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,7 +235,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -362,34 +243,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,94 +488,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.7052210000000002E-2</c:v>
+                  <c:v>0.996038589736297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.375589E-2</c:v>
+                  <c:v>0.97997856851227305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1025660000000002E-2</c:v>
+                  <c:v>0.32109415339125502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.627143E-2</c:v>
+                  <c:v>1.7847402165371899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5015099999999997E-2</c:v>
+                  <c:v>1.2959109128427899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5366390000000001E-2</c:v>
+                  <c:v>-0.46294696666005303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9268279999999999E-2</c:v>
+                  <c:v>-0.34578905650227498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.452906E-2</c:v>
+                  <c:v>-0.21774214074961901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.399043E-2</c:v>
+                  <c:v>-0.10085974450332801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.282456E-2</c:v>
+                  <c:v>0.867768860941179</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7984760000000001E-2</c:v>
+                  <c:v>-0.85052145240385801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3864190000000002E-2</c:v>
+                  <c:v>0.155589129337599</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.12735637999999999</c:v>
+                  <c:v>1.35071231941623</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6796859999999999E-2</c:v>
+                  <c:v>0.34529082045179699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1121310000000001E-2</c:v>
+                  <c:v>-1.02268632273116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.374588E-2</c:v>
+                  <c:v>0.74755527647081399</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.310897E-2</c:v>
+                  <c:v>0.90426995506049201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0438209999999998E-2</c:v>
+                  <c:v>2.3021257691099399</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9939130000000001E-2</c:v>
+                  <c:v>0.45284539631248399</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3772169999999999E-2</c:v>
+                  <c:v>0.85735630830762599</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.6795500000000001E-2</c:v>
+                  <c:v>0.513809973485294</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.304846E-2</c:v>
+                  <c:v>-7.0948923013203005E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.474345E-2</c:v>
+                  <c:v>-0.477289438479508</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2610179999999999E-2</c:v>
+                  <c:v>-1.0401361205380499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.728642E-2</c:v>
+                  <c:v>2.5615737753477901</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11222741</c:v>
+                  <c:v>4.9479016435800203</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4494080000000001E-2</c:v>
+                  <c:v>2.2368421230283202</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9066620000000004E-2</c:v>
+                  <c:v>-2.0958953451532998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5710439999999999E-2</c:v>
+                  <c:v>0.44532094384309701</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.6790569999999997E-2</c:v>
+                  <c:v>3.8400847783049099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,45 +605,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="642347080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -1728,16 +1557,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:N33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1745,334 +1574,334 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>1.7052210000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.996038589736297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.375589E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>0.97997856851227305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.1025660000000002E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C4">
+        <v>0.32109415339125502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.627143E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>1.7847402165371899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5.5015099999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>1.2959109128427899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.5366390000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>-0.46294696666005303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.9268279999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>-0.34578905650227498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.452906E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>-0.21774214074961901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.399043E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>-0.10085974450332801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.282456E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>0.867768860941179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.7984760000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>-0.85052145240385801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.3864190000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>0.155589129337599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.12735637999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>1.35071231941623</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.6796859999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>0.34529082045179699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.1121310000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>-1.02268632273116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.374588E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>0.74755527647081399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.310897E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C18">
+        <v>0.90426995506049201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2.0438209999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C19">
+        <v>2.3021257691099399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2.9939130000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>0.45284539631248399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2.3772169999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>0.85735630830762599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.6795500000000001E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="C22">
+        <v>0.513809973485294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.304846E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>-7.0948923013203005E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.474345E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>-0.477289438479508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5.2610179999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>-1.0401361205380499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.728642E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>2.5615737753477901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.11222741</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>4.9479016435800203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2.4494080000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>2.2368421230283202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7.9066620000000004E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C29">
+        <v>-2.0958953451532998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.5710439999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C30">
+        <v>0.44532094384309701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="1">
-        <v>8.6790569999999997E-2</v>
+        <v>59</v>
+      </c>
+      <c r="C31">
+        <v>3.8400847783049099</v>
       </c>
     </row>
   </sheetData>
@@ -2092,238 +1921,4 @@
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C847A31-2B34-4969-A6C9-5B8A9060749B}">
-  <dimension ref="D4:G18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>